--- a/KahootBlank.xlsx
+++ b/KahootBlank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\TG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\0F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915F084-9B9D-4A38-A4EA-744253464653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF21295-C5C1-49C9-B65A-748615EA5E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-530" windowWidth="19240" windowHeight="11490" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Quiz template</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>What error was thrown in Lab 8 Part 1 Exception Handling?</t>
+  </si>
+  <si>
+    <t>So all Accounts implement the withdraw and deposit methods</t>
+  </si>
+  <si>
+    <t>There was no purpose</t>
+  </si>
+  <si>
+    <t>To learn about interfaces and how to use them</t>
+  </si>
+  <si>
+    <t>What was the purpose of using the Account Interface in Lab 9 and implementing it in each Account class?</t>
   </si>
 </sst>
 </file>
@@ -784,7 +796,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1104,13 +1116,25 @@
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
